--- a/tutorials/review_points_YadanarMoe.xlsx
+++ b/tutorials/review_points_YadanarMoe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yadanar moe\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CC470F-7E84-4127-9FA8-B15EE3075CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7862AC9-D54E-410F-98F0-666F2D9A28D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,9 @@
     <sheet name="Review" sheetId="2" r:id="rId2"/>
     <sheet name="Ref." sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Review!$A$1:$X$34</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
   <si>
     <t>Open</t>
     <phoneticPr fontId="1"/>
@@ -194,6 +197,35 @@
   </si>
   <si>
     <t>Yadanar Moe</t>
+  </si>
+  <si>
+    <t>Tutorial_03
+index.php</t>
+  </si>
+  <si>
+    <t>1) When enter future date,instead of showing your age is 0,
+   use condition to show message for Invalid DOB.
+2) Use an indent of 4 spaces for *.php</t>
+  </si>
+  <si>
+    <t>Tutorial_04 index.php</t>
+  </si>
+  <si>
+    <t>1) Use an indent of 4 spaces for *.php
+2) Please set default username and password to show Invalid Login</t>
+  </si>
+  <si>
+    <t>Tutorial_05 index.php</t>
+  </si>
+  <si>
+    <t>1) Use an indent of 4 spaces for *.php
+2) Display excel and csv contents in table style</t>
+  </si>
+  <si>
+    <t>Tutorial_06 index.php</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -393,7 +425,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -457,6 +489,15 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -487,15 +528,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -508,17 +549,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -663,7 +698,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>440266</xdr:colOff>
+      <xdr:colOff>440267</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>1615741</xdr:rowOff>
     </xdr:to>
@@ -1430,10 +1465,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="H1" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:U2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1443,7 +1478,9 @@
     <col min="3" max="3" width="11.36328125" style="15" customWidth="1"/>
     <col min="4" max="4" width="8.6328125" style="15" customWidth="1"/>
     <col min="5" max="5" width="12.54296875" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="14" width="9" style="15"/>
+    <col min="6" max="7" width="9" style="15"/>
+    <col min="8" max="8" width="20.7265625" style="15" customWidth="1"/>
+    <col min="9" max="14" width="9" style="15"/>
     <col min="15" max="15" width="13" style="15" customWidth="1"/>
     <col min="16" max="21" width="9" style="15"/>
     <col min="22" max="22" width="14.6328125" style="15" customWidth="1"/>
@@ -1468,30 +1505,30 @@
       <c r="E1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="21" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="23"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="26"/>
       <c r="O1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="26"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="29"/>
       <c r="V1" s="17" t="s">
         <v>34</v>
       </c>
@@ -1518,30 +1555,30 @@
       <c r="E2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="27" t="s">
+      <c r="G2" s="31"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="32"/>
       <c r="O2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
       <c r="V2" s="18" t="s">
         <v>35</v>
       </c>
@@ -1564,30 +1601,30 @@
       <c r="E3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="27" t="s">
+      <c r="G3" s="31"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="29"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="32"/>
       <c r="O3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="34" t="s">
+      <c r="P3" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="36"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="39"/>
       <c r="V3" s="18" t="s">
         <v>35</v>
       </c>
@@ -1595,116 +1632,214 @@
       <c r="X3" s="18"/>
     </row>
     <row r="4" spans="1:24" ht="135" customHeight="1">
-      <c r="A4" s="19"/>
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
       <c r="B4" s="20"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="18"/>
+      <c r="C4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="W4" s="18"/>
       <c r="X4" s="18"/>
     </row>
     <row r="5" spans="1:24" ht="135" customHeight="1">
-      <c r="A5" s="19"/>
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
       <c r="B5" s="20"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="18"/>
+      <c r="C5" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="W5" s="18"/>
       <c r="X5" s="18"/>
     </row>
     <row r="6" spans="1:24" ht="135" customHeight="1">
-      <c r="A6" s="19"/>
+      <c r="A6" s="19">
+        <v>5</v>
+      </c>
       <c r="B6" s="20"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="18"/>
+      <c r="C6" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="W6" s="18"/>
       <c r="X6" s="18"/>
     </row>
     <row r="7" spans="1:24" ht="198.65" customHeight="1">
-      <c r="A7" s="19"/>
+      <c r="A7" s="19">
+        <v>6</v>
+      </c>
       <c r="B7" s="20"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="18"/>
+      <c r="C7" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="W7" s="18"/>
       <c r="X7" s="18"/>
     </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="19"/>
+      <c r="B8" s="41"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="21"/>
+    </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="24">
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="F5:H5"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="I5:N5"/>
     <mergeCell ref="I6:N6"/>
     <mergeCell ref="P5:U5"/>
     <mergeCell ref="P6:U6"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:N8"/>
+    <mergeCell ref="P8:U8"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="P1:U1"/>
     <mergeCell ref="F1:H1"/>
@@ -1718,15 +1853,12 @@
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="I3:N3"/>
     <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="67" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="21" max="1048575" man="1"/>
+    <brk id="21" max="33" man="1"/>
   </colBreaks>
   <drawing r:id="rId2"/>
   <extLst>

--- a/tutorials/review_points_YadanarMoe.xlsx
+++ b/tutorials/review_points_YadanarMoe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7862AC9-D54E-410F-98F0-666F2D9A28D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859AADA0-4872-4CD3-9A3D-E13DCA26840C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
   <si>
     <t>Open</t>
     <phoneticPr fontId="1"/>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>ok</t>
+  </si>
+  <si>
+    <t>Tutorial_07 index.php</t>
   </si>
 </sst>
 </file>
@@ -425,7 +428,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -489,15 +492,33 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -516,16 +537,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -536,24 +548,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1467,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:N7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1505,30 +1499,30 @@
       <c r="E1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="24" t="s">
+      <c r="G1" s="31"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="26"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="32"/>
       <c r="O1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="29"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="35"/>
       <c r="V1" s="17" t="s">
         <v>34</v>
       </c>
@@ -1555,30 +1549,30 @@
       <c r="E2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="30" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="32"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="23"/>
       <c r="O2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="36" t="s">
+      <c r="P2" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
       <c r="V2" s="18" t="s">
         <v>35</v>
       </c>
@@ -1601,30 +1595,30 @@
       <c r="E3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="30" t="s">
+      <c r="G3" s="22"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="32"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="23"/>
       <c r="O3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="37" t="s">
+      <c r="P3" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="39"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="26"/>
       <c r="V3" s="18" t="s">
         <v>35</v>
       </c>
@@ -1645,30 +1639,30 @@
       <c r="E4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="30" t="s">
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="32"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="23"/>
       <c r="O4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="37" t="s">
+      <c r="P4" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="39"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="26"/>
       <c r="V4" s="18" t="s">
         <v>35</v>
       </c>
@@ -1689,30 +1683,30 @@
       <c r="E5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="30" t="s">
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="32"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="23"/>
       <c r="O5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="37" t="s">
+      <c r="P5" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="39"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="26"/>
       <c r="V5" s="18" t="s">
         <v>35</v>
       </c>
@@ -1733,30 +1727,30 @@
       <c r="E6" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="30" t="s">
+      <c r="G6" s="22"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="32"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="23"/>
       <c r="O6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="37" t="s">
+      <c r="P6" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="39"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="26"/>
       <c r="V6" s="18" t="s">
         <v>35</v>
       </c>
@@ -1777,30 +1771,30 @@
       <c r="E7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="30" t="s">
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="35"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="38"/>
       <c r="O7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="37" t="s">
+      <c r="P7" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="39"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="26"/>
       <c r="V7" s="18" t="s">
         <v>35</v>
       </c>
@@ -1808,35 +1802,49 @@
       <c r="X7" s="18"/>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="19"/>
-      <c r="B8" s="41"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="21"/>
+      <c r="A8" s="19">
+        <v>7</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="18" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I5:N5"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="P5:U5"/>
-    <mergeCell ref="P6:U6"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="I8:N8"/>
     <mergeCell ref="P8:U8"/>
@@ -1853,6 +1861,14 @@
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="I3:N3"/>
     <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="P5:U5"/>
+    <mergeCell ref="P6:U6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1868,19 +1884,19 @@
           <x14:formula1>
             <xm:f>'Ref.'!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D7</xm:sqref>
+          <xm:sqref>D2:D8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>'Ref.'!$C$2:$C$7</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E7</xm:sqref>
+          <xm:sqref>E2:E8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>'Ref.'!$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>O2:O7</xm:sqref>
+          <xm:sqref>O2:O8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
@@ -1892,7 +1908,7 @@
           <x14:formula1>
             <xm:f>'Ref.'!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C7</xm:sqref>
+          <xm:sqref>C2:C8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
